--- a/WebContent/erpclubdoc/template/guest.xlsx
+++ b/WebContent/erpclubdoc/template/guest.xlsx
@@ -1,52 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/defuxiaozhu/Desktop/标准数据表/模板/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="25600" windowHeight="11900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>会籍</t>
-  </si>
-  <si>
-    <t>年龄范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获客渠道</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,6 +156,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -432,62 +442,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="19.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="4" customWidth="1"/>
-    <col min="7" max="13" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="27.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="19.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="4" customWidth="1"/>
+    <col min="9" max="14" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"18岁以下,18-24,25-30,31-40,41-50,51-60,60以上"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6">
       <formula1>"外宣收集(DM),其他(other),访客介绍(VR),购买名单,来访(DI),访客(WI),其他介绍(OR),电话咨询(TI),会员介绍(BR)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"外宣收集（DM）,其他（other）,访客介绍（VR）,购买名单,来访（DI）,访客（WI）,其他介绍（OR）,电话咨询（TI）,会员介绍（BR）"</formula1>
     </dataValidation>
   </dataValidations>

--- a/WebContent/erpclubdoc/template/guest.xlsx
+++ b/WebContent/erpclubdoc/template/guest.xlsx
@@ -2,98 +2,77 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="2415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公司类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>顾问</t>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分类</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,37 +113,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,70 +412,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="19.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="4" customWidth="1"/>
-    <col min="9" max="14" width="8.875" style="4"/>
+    <col min="1" max="1" width="27.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="19.125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="15.375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
-      <formula1>"18岁以下,18-24,25-30,31-40,41-50,51-60,60以上"</formula1>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="健身俱乐部 健身工作室 瑜伽会所 器械器 培训机构 其他" sqref="D1:D65534">
+      <formula1>"健身俱乐部,健身工作室,瑜伽会所,器械器,培训机构,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6">
-      <formula1>"外宣收集(DM),其他(other),访客介绍(VR),购买名单,来访(DI),访客(WI),其他介绍(OR),电话咨询(TI),会员介绍(BR)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"外宣收集（DM）,其他（other）,访客介绍（VR）,购买名单,来访（DI）,访客（WI）,其他介绍（OR）,电话咨询（TI）,会员介绍（BR）"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I65534">
+      <formula1>"客户,重点意向客户,咨询客户,陌生客户"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
